--- a/extracted_excel/Kakamega_gendered_enterprise.xlsx
+++ b/extracted_excel/Kakamega_gendered_enterprise.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="68">
-  <si>
-    <t>County</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t>Theme</t>
   </si>
@@ -28,9 +25,6 @@
     <t>Response</t>
   </si>
   <si>
-    <t>Kakamega</t>
-  </si>
-  <si>
     <t>Enterprise Selection and Community Involvement</t>
   </si>
   <si>
@@ -142,72 +136,30 @@
     <t>What kinds of support (financial, technical, policy) would make it easier for women and marginalized groups to thrive?</t>
   </si>
   <si>
-    <t>Dairy(Cow milk) - High demand than supply Poultry - High demand for indigenous chicken Eggs - High demand (importing eggs from Uganda) Pig Production - High demand than supply Beekeeping - Demand for honey is high Sheep and Goat - High demand Fish - High demand</t>
+    <t>Dairy(Cow milk) - High demand than supply Poultry - High demand for indigenous chicken Eggs - High demand (importing eggs from Uganda) Pig Production - High demand than supply Beekeeping - Demand for honey is high Sheep and Goat - High demand Fish - High demand  Crop Enterprises Maize - High demand African Leafy Vegetables - Very High demand Sugarcane - High demand Tea - Low demand Beans/Soy beans - High demand Bananas - High demand Sweet Potatoes - High demand Arrow roots - High demand Kales - High demand</t>
   </si>
   <si>
     <t>Participatory rural appraisal Community Engagement (e.g Barazas, ) Focused group discussions Stakeholders initiatives Government policies</t>
   </si>
   <si>
-    <t>Women tend to like small stock, local vegetables, Youth prefer high-value and short-season enterprises Men Prefer long-term enterprises (because of access to resources like land)</t>
-  </si>
-  <si>
-    <t>Poultry - Women and Youth Dairy - Men Piggery - Men, Women African Indeginous Vegetables - Elderly Women, Youth Maize - Men Sugarcane - Men Tea/Coffee - Men Sweet Potatoes - Women Beans - Women Bananas - Women</t>
-  </si>
-  <si>
     <t>● African Indeginous Vegetables ● Local Poultry ● Sweet Potatoes ● Groundnuts ● Cassava</t>
   </si>
   <si>
-    <t>Low initial capital requirement Women empowerment Policies and Incentives Access to Land Emerging economic burdens Access to credit (Village Savings and Loan Association (VSLA), MERRY GO ROUNDS )</t>
-  </si>
-  <si>
-    <t>Land Inheritance rights Cultural norms Gender-Based Violence (GBV) Mismanagement of farmer-based organisations (cooperatives, groups) Inadequate implementation of relevant policies Marketing bottleneck/inefficiencies affecting women High Cost of farm inputs Limited access to technical information Risk averseness</t>
-  </si>
-  <si>
-    <t>crop based enterprises Activities Men Women Youth Elderly Remarks Land Preparation Men Women Youth Planting Women Youth Weeding Women Youth Elderly Predominantly Women Pest and Disease Control Men Health Hazard to Women of Reproductive Age Harvesting Women Youth Marketing Men Women Youth Elderly Some enterprises are engendered Livestock based enterprises Activities Men Women Youth Elderly Remarks Selection and Breeding Men Elderly Feeding Women Youth Establishment of pastures done by men Construction of Structures Men Women Youth Cleaning of structures</t>
-  </si>
-  <si>
-    <t>Selling Products Poultry Low Income from the sales Milking Dairy It is engendered/cultural Selling Produce Vegetables Low Income from the sales Storage Maize Food security</t>
-  </si>
-  <si>
-    <t>The reintroduction of indigenous food security crops (cassava, sweet potatoes, sorghum, finger millet) Introduction of irrigation schemes and green-house technology for production of high values horticulture crops The reintroduction of small Stock (improved goats) due to pasture scarcity Upscaling of bee-keeping activities</t>
-  </si>
-  <si>
-    <t>Enterprise Gender Remarks Green-House Farming Youth High Value crops Small Scale irrigation Men Small Stock Women Bee-Keeping Men BSF (Black Soldier Fly)/ Azola/ Mushroom Youth High Value Indigenous Crops(Sweet Potatoes,Cassava) Women</t>
-  </si>
-  <si>
-    <t>Low access to digital platforms/ICT Low digital literacy levels High cost of ICT tools Gender roles hinder access to ICT tools</t>
-  </si>
-  <si>
-    <t>a. land, Most Men Own Land Due to the Cultural Influences(Inheritance and bias) Men have direct access to land and control land Practices Men can control enterprises practised on the land Women Have access to land but have limited control over land Youth do not have access/control over land The elderly control land but rarely put it to productive use b. Finance-the overall financial landscape for access including the informal such as community Savings and loans associations, Saccos banks, insurance services Men can easily access credit/capital because they have collateral (e.g Title deeds) Men can have an option of selling land and other household assets Women have limited access to formal credit (Banking institutions and other lenders) Women hugely control VSLAs, unfortunately the levels of credit are low Youth are the most disadvantaged in accessing finance Youth tend to be high risk clients Youth are migratory in nature The elderly are sceptical about taking loans c. Access to training and knowledge/extension Men tend to access training and knowledge more easily Men rarely put to use the knowledge acquired Youth tend to access trainings through the digital platforms and mass media Women access to knowledge is limited Women access to knowledge through community groups and farmer to farmer extension Women tend to utilise the information better than the other genders Knowledge &amp; extension services are inadequate in the County Knowledge &amp; extension services should target more women as they easily apply what they learn d. Access to information such as market, weather Men &amp; Youth use social Platforms and mass media mainly Women rarely access digital information Women tend to use mass media and social interactions Weather information is increasingly being accessed Middlemen are key actors to the market information Indigenous knowledge is critical to weather information e. Access to technology e.g ICT, digital gadgets, internet, digital literacy Men are advantaged and tend to access digital gadgets more easily than women Youth have higher digital literacy Women and the elderly tend to be averse to digital literacy The cost of digital gadgets and data tends to limit access to digital platforms Data integrity(i.e consitency,reliabity, validity and timeliness) is limiting in utilisation of ICT</t>
+    <t>a. land, Most Men Own Land Due to the Cultural Influences(Inheritance and bias) Men have direct access to land and control land Practices Men can control enterprises practised on the land Women Have access to land but have limited control over land Youth do not have access/control over land The elderly control land but rarely put it to productive use  b. Finance-the overall financial landscape for access including the informal such as community Savings and loans associations, Saccos banks, insurance services Men can easily access credit/capital because they have collateral (e.g Title deeds) Men can have an option of selling land and other household assets Women have limited access to formal credit (Banking institutions and other lenders) Women hugely control VSLAs, unfortunately the levels of credit are low Youth are the most disadvantaged in accessing finance Youth tend to be high risk clients Youth are migratory in nature The elderly are sceptical about taking loans  c. Access to training and knowledge/extension Men tend to access training and knowledge more easily Men rarely put to use the knowledge acquired Youth tend to access trainings through the digital platforms and mass media Women access to knowledge is limited Women access to knowledge through community groups and farmer to farmer extension Women tend to utilise the information better than the other genders Knowledge &amp; extension services are inadequate in the County Knowledge &amp; extension services should target more women as they easily apply what they learn  d. Access to information such as market, weather Men &amp; Youth use social Platforms and mass media mainly Women rarely access digital information Women tend to use mass media and social interactions Weather information is increasingly being accessed Middlemen are key actors to the market information Indigenous knowledge is critical to weather information  e. Access to technology e.g ICT, digital gadgets, internet, digital literacy Men are advantaged and tend to access digital gadgets more easily than women Youth have higher digital literacy Women and the elderly tend to be averse to digital literacy The cost of digital gadgets and data tends to limit access to digital platforms Data integrity(i.e consitency,reliabity, validity and timeliness) is limiting in utilisation of ICT</t>
   </si>
   <si>
     <t>Key Value Chains in Kakamega County:</t>
   </si>
   <si>
-    <t>No response provided</t>
-  </si>
-  <si>
-    <t>Source of income, employment, improved nutrition,women empowerment The most profitable enterprises for women in the county are: ALvs, Poultry, Milk Products, Soy beans, Bananas</t>
-  </si>
-  <si>
-    <t>The income levels are generally lower than the men dominated enterprises The sustainability potential is very high</t>
-  </si>
-  <si>
     <t>Improved Household status Reduced GBVs Improved literacy levels Improved nutrition and health</t>
   </si>
   <si>
     <t>Favourable climatic conditions Ready market The enterprises require small land acreages Availability of appropriate Technologies e.g climate Smart technologies Improved levels of extension services/ Knowledge Women are better adopters of new technologies</t>
   </si>
   <si>
-    <t>Most of these enterprises cut across most of the subcounties and wards Suitable agroecological zones across the counties Suitable technological options (e.g organic farming, suitable varieties and breeds)</t>
-  </si>
-  <si>
     <t>Organised marketing Improved extension services Strengthening farmer-based organisations/cooperatives Improved access to credit sources Agricultural insurance Improved Institutional Governance Systems Improved Infrastructure (Roads, communication)</t>
   </si>
   <si>
-    <t>A functional M&amp;E in the county Continuous Farmer Profiling National Population census Periodic departmental and stakeholder reports</t>
-  </si>
-  <si>
     <t>Draft land lease regulations (County Assembly stage) Kakamega County Agroecology policy and strategy Horticulture policy and strategy County Agrinutrition Implementation Strategy Kakamega County Youth and women empowerment service</t>
   </si>
   <si>
@@ -218,6 +170,9 @@
   </si>
   <si>
     <t>Harmonization of policy initiatives Development of relevant policies Integration of the policies and strategies in the CIDPs and other development plans Lobbying for resources from stakeholders to finance women led enterprises</t>
+  </si>
+  <si>
+    <t>Access to credit Access to Land Access to Markets Access to knowledge &amp; skills Policy domestication   Activities</t>
   </si>
 </sst>
 </file>
@@ -575,13 +530,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,414 +546,276 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
